--- a/CodeSystem-CSDerivadoPara.xlsx
+++ b/CodeSystem-CSDerivadoPara.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T09:34:47-03:00</t>
+    <t>2025-01-31T15:38:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>11</t>
+    <t>9</t>
   </si>
   <si>
     <t>Level</t>
@@ -178,12 +178,6 @@
   </si>
   <si>
     <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>Diagnostico</t>
@@ -505,7 +499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,10 +608,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -632,30 +626,6 @@
         <v>57</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-CSDerivadoPara.xlsx
+++ b/CodeSystem-CSDerivadoPara.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:38:22-03:00</t>
+    <t>2025-03-06T08:20:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CSDerivadoPara.xlsx
+++ b/CodeSystem-CSDerivadoPara.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T08:20:26-03:00</t>
+    <t>2025-03-06T09:05:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
